--- a/go_enrichment_chipseq_olineu.xlsx
+++ b/go_enrichment_chipseq_olineu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chipseq" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="922">
   <si>
     <t>ENSMUSG00000029104</t>
   </si>
@@ -2715,6 +2715,96 @@
   </si>
   <si>
     <t>transporter complex (GO:1990351)</t>
+  </si>
+  <si>
+    <t>ATP hydrolysis activity (GO:0016887)</t>
+  </si>
+  <si>
+    <t>ribonucleoprotein complex binding (GO:0043021)</t>
+  </si>
+  <si>
+    <t>ATP-dependent activity (GO:0140657)</t>
+  </si>
+  <si>
+    <t>ribonucleoside triphosphate phosphatase activity (GO:0017111)</t>
+  </si>
+  <si>
+    <t>hydrolase activity, acting on acid anhydrides, in phosphorus-containing anhydrides (GO:0016818)</t>
+  </si>
+  <si>
+    <t>hydrolase activity, acting on acid anhydrides (GO:0016817)</t>
+  </si>
+  <si>
+    <t>pyrophosphatase activity (GO:0016462)</t>
+  </si>
+  <si>
+    <t>hydrolase activity (GO:0016787)</t>
+  </si>
+  <si>
+    <t>catalytic activity (GO:0003824)</t>
+  </si>
+  <si>
+    <t>ion binding (GO:0043167)</t>
+  </si>
+  <si>
+    <t>molecular transducer activity (GO:0060089)</t>
+  </si>
+  <si>
+    <t>signaling receptor activity (GO:0038023)</t>
+  </si>
+  <si>
+    <t>transmembrane signaling receptor activity (GO:0004888)</t>
+  </si>
+  <si>
+    <t>G protein-coupled receptor activity (GO:0004930)</t>
+  </si>
+  <si>
+    <t>odorant binding (GO:0005549)</t>
+  </si>
+  <si>
+    <t>olfactory receptor activity (GO:0004984)</t>
+  </si>
+  <si>
+    <t>chromosome, telomeric region (GO:0000781)</t>
+  </si>
+  <si>
+    <t>ATPase complex (GO:1904949)</t>
+  </si>
+  <si>
+    <t>myelin sheath (GO:0043209)</t>
+  </si>
+  <si>
+    <t>chromosomal region (GO:0098687)</t>
+  </si>
+  <si>
+    <t>nuclear speck (GO:0016607)</t>
+  </si>
+  <si>
+    <t>nuclear body (GO:0016604)</t>
+  </si>
+  <si>
+    <t>chromosome (GO:0005694)</t>
+  </si>
+  <si>
+    <t>nucleoplasm (GO:0005654)</t>
+  </si>
+  <si>
+    <t>nuclear lumen (GO:0031981)</t>
+  </si>
+  <si>
+    <t>cytosol (GO:0005829)</t>
+  </si>
+  <si>
+    <t>intracellular non-membrane-bounded organelle (GO:0043232)</t>
+  </si>
+  <si>
+    <t>non-membrane-bounded organelle (GO:0043228)</t>
+  </si>
+  <si>
+    <t>extracellular region (GO:0005576)</t>
+  </si>
+  <si>
+    <t>extracellular space (GO:0005615)</t>
   </si>
 </sst>
 </file>
@@ -3036,7 +3126,7 @@
   <dimension ref="A1:D624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:A624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9447,11 +9537,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -9503,7 +9596,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>718</v>
+        <v>799</v>
       </c>
       <c r="B7" t="s">
         <v>719</v>
@@ -9529,1771 +9622,1023 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>726</v>
+        <v>908</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>0.38</v>
+        <v>3.06</v>
       </c>
       <c r="E8" t="s">
         <v>727</v>
       </c>
       <c r="F8">
-        <v>13.18</v>
+        <v>4.57</v>
       </c>
       <c r="G8" s="1">
-        <v>1.02E-4</v>
+        <v>6.4999999999999996E-6</v>
       </c>
       <c r="H8" s="1">
-        <v>2.76E-2</v>
+        <v>6.4300000000000002E-4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>728</v>
+        <v>909</v>
       </c>
       <c r="B9">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>0.73</v>
+        <v>3.74</v>
       </c>
       <c r="E9" t="s">
         <v>727</v>
       </c>
       <c r="F9">
-        <v>8.18</v>
+        <v>3.21</v>
       </c>
       <c r="G9" s="1">
-        <v>1.94E-4</v>
+        <v>6.3699999999999998E-4</v>
       </c>
       <c r="H9" s="1">
-        <v>4.53E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>729</v>
+        <v>910</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>0.73</v>
+        <v>5.26</v>
       </c>
       <c r="E10" t="s">
         <v>727</v>
       </c>
       <c r="F10">
-        <v>8.18</v>
+        <v>2.85</v>
       </c>
       <c r="G10" s="1">
-        <v>1.94E-4</v>
+        <v>4.55E-4</v>
       </c>
       <c r="H10" s="1">
-        <v>4.4600000000000001E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>730</v>
+        <v>911</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>359</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>2.2000000000000002</v>
+        <v>9.08</v>
       </c>
       <c r="E11" t="s">
         <v>727</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2.64</v>
       </c>
       <c r="G11" s="1">
-        <v>3.01E-5</v>
+        <v>3.2199999999999997E-5</v>
       </c>
       <c r="H11" s="1">
-        <v>1.0699999999999999E-2</v>
+        <v>3.0400000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>731</v>
+        <v>912</v>
       </c>
       <c r="B12">
-        <v>128</v>
+        <v>354</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>3.24</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E12" t="s">
         <v>727</v>
       </c>
       <c r="F12">
-        <v>4.0199999999999996</v>
+        <v>2.46</v>
       </c>
       <c r="G12" s="1">
-        <v>4.8399999999999997E-5</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="H12" s="1">
-        <v>1.5800000000000002E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>732</v>
+        <v>842</v>
       </c>
       <c r="B13">
-        <v>129</v>
+        <v>926</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>3.26</v>
+        <v>23.42</v>
       </c>
       <c r="E13" t="s">
         <v>727</v>
       </c>
       <c r="F13">
-        <v>3.98</v>
+        <v>2.09</v>
       </c>
       <c r="G13" s="1">
-        <v>5.2099999999999999E-5</v>
+        <v>2.4200000000000001E-6</v>
       </c>
       <c r="H13" s="1">
-        <v>1.6E-2</v>
+        <v>2.81E-4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>733</v>
+        <v>913</v>
       </c>
       <c r="B14">
-        <v>333</v>
+        <v>757</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D14">
-        <v>8.42</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="E14" t="s">
         <v>727</v>
       </c>
       <c r="F14">
-        <v>2.97</v>
+        <v>2.04</v>
       </c>
       <c r="G14" s="1">
-        <v>3.45E-6</v>
+        <v>5.66E-5</v>
       </c>
       <c r="H14" s="1">
-        <v>2.3500000000000001E-3</v>
+        <v>4.6699999999999997E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>734</v>
+        <v>844</v>
       </c>
       <c r="B15">
-        <v>380</v>
+        <v>1773</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="D15">
-        <v>9.61</v>
+        <v>44.84</v>
       </c>
       <c r="E15" t="s">
         <v>727</v>
       </c>
       <c r="F15">
-        <v>2.91</v>
+        <v>1.92</v>
       </c>
       <c r="G15" s="1">
-        <v>1.2699999999999999E-6</v>
+        <v>1.24E-8</v>
       </c>
       <c r="H15" s="1">
-        <v>1.17E-3</v>
+        <v>2.4499999999999998E-6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>735</v>
+        <v>843</v>
       </c>
       <c r="B16">
-        <v>549</v>
+        <v>883</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>13.89</v>
+        <v>22.33</v>
       </c>
       <c r="E16" t="s">
         <v>727</v>
       </c>
       <c r="F16">
-        <v>2.74</v>
+        <v>1.88</v>
       </c>
       <c r="G16" s="1">
-        <v>7.3500000000000003E-8</v>
+        <v>1.9100000000000001E-4</v>
       </c>
       <c r="H16" s="1">
-        <v>1.15E-4</v>
+        <v>1.46E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>736</v>
+        <v>846</v>
       </c>
       <c r="B17">
-        <v>561</v>
+        <v>1249</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>14.19</v>
+        <v>31.59</v>
       </c>
       <c r="E17" t="s">
         <v>727</v>
       </c>
       <c r="F17">
-        <v>2.68</v>
+        <v>1.68</v>
       </c>
       <c r="G17" s="1">
-        <v>1.23E-7</v>
+        <v>4.1899999999999999E-4</v>
       </c>
       <c r="H17" s="1">
-        <v>1.6100000000000001E-4</v>
+        <v>2.5899999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>737</v>
+        <v>914</v>
       </c>
       <c r="B18">
-        <v>571</v>
+        <v>1332</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>14.44</v>
+        <v>33.69</v>
       </c>
       <c r="E18" t="s">
         <v>727</v>
       </c>
       <c r="F18">
-        <v>2.63</v>
+        <v>1.66</v>
       </c>
       <c r="G18" s="1">
-        <v>1.8799999999999999E-7</v>
+        <v>3.1599999999999998E-4</v>
       </c>
       <c r="H18" s="1">
-        <v>2.1000000000000001E-4</v>
+        <v>2.0199999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>738</v>
+        <v>845</v>
       </c>
       <c r="B19">
-        <v>439</v>
+        <v>1844</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="D19">
-        <v>11.1</v>
+        <v>46.64</v>
       </c>
       <c r="E19" t="s">
         <v>727</v>
       </c>
       <c r="F19">
-        <v>2.52</v>
+        <v>1.57</v>
       </c>
       <c r="G19" s="1">
-        <v>2.3799999999999999E-5</v>
+        <v>2.02E-4</v>
       </c>
       <c r="H19" s="1">
-        <v>9.58E-3</v>
+        <v>1.4800000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>739</v>
+        <v>915</v>
       </c>
       <c r="B20">
-        <v>648</v>
+        <v>3656</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="D20">
-        <v>16.39</v>
+        <v>92.47</v>
       </c>
       <c r="E20" t="s">
         <v>727</v>
       </c>
       <c r="F20">
-        <v>2.44</v>
+        <v>1.56</v>
       </c>
       <c r="G20" s="1">
-        <v>5.82E-7</v>
+        <v>5.6500000000000003E-8</v>
       </c>
       <c r="H20" s="1">
-        <v>5.6999999999999998E-4</v>
+        <v>7.9899999999999997E-6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>740</v>
+        <v>848</v>
       </c>
       <c r="B21">
-        <v>613</v>
+        <v>2494</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D21">
-        <v>15.5</v>
+        <v>63.08</v>
       </c>
       <c r="E21" t="s">
         <v>727</v>
       </c>
       <c r="F21">
-        <v>2.2599999999999998</v>
+        <v>1.51</v>
       </c>
       <c r="G21" s="1">
-        <v>1.5400000000000002E-5</v>
+        <v>6.6799999999999997E-5</v>
       </c>
       <c r="H21" s="1">
-        <v>7.3400000000000002E-3</v>
+        <v>5.2900000000000004E-3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>741</v>
+        <v>849</v>
       </c>
       <c r="B22">
-        <v>785</v>
+        <v>5857</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="D22">
-        <v>19.850000000000001</v>
+        <v>148.13999999999999</v>
       </c>
       <c r="E22" t="s">
         <v>727</v>
       </c>
       <c r="F22">
-        <v>2.2200000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="G22" s="1">
-        <v>1.9199999999999998E-6</v>
+        <v>2.39E-11</v>
       </c>
       <c r="H22" s="1">
-        <v>1.5100000000000001E-3</v>
+        <v>6.7599999999999998E-9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>742</v>
+        <v>916</v>
       </c>
       <c r="B23">
-        <v>694</v>
+        <v>4121</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D23">
-        <v>17.55</v>
+        <v>104.23</v>
       </c>
       <c r="E23" t="s">
         <v>727</v>
       </c>
       <c r="F23">
-        <v>2.0499999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="G23" s="1">
-        <v>8.3399999999999994E-5</v>
+        <v>1.2800000000000001E-7</v>
       </c>
       <c r="H23" s="1">
-        <v>2.3300000000000001E-2</v>
+        <v>1.6900000000000001E-5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>743</v>
+        <v>851</v>
       </c>
       <c r="B24">
-        <v>1082</v>
+        <v>4567</v>
       </c>
       <c r="C24">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="D24">
-        <v>27.37</v>
+        <v>115.51</v>
       </c>
       <c r="E24" t="s">
         <v>727</v>
       </c>
       <c r="F24">
-        <v>1.94</v>
+        <v>1.49</v>
       </c>
       <c r="G24" s="1">
-        <v>8.0099999999999995E-6</v>
+        <v>2.7E-8</v>
       </c>
       <c r="H24" s="1">
-        <v>4.4799999999999996E-3</v>
+        <v>4.8500000000000002E-6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>744</v>
+        <v>850</v>
       </c>
       <c r="B25">
-        <v>1022</v>
+        <v>4568</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="D25">
-        <v>25.85</v>
+        <v>115.54</v>
       </c>
       <c r="E25" t="s">
         <v>727</v>
       </c>
       <c r="F25">
-        <v>1.93</v>
+        <v>1.49</v>
       </c>
       <c r="G25" s="1">
-        <v>1.73E-5</v>
+        <v>3.5100000000000003E-8</v>
       </c>
       <c r="H25" s="1">
-        <v>7.9799999999999992E-3</v>
+        <v>5.7899999999999996E-6</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>745</v>
+        <v>852</v>
       </c>
       <c r="B26">
-        <v>1336</v>
+        <v>4568</v>
       </c>
       <c r="C26">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="D26">
-        <v>33.79</v>
+        <v>115.54</v>
       </c>
       <c r="E26" t="s">
         <v>727</v>
       </c>
       <c r="F26">
-        <v>1.72</v>
+        <v>1.49</v>
       </c>
       <c r="G26" s="1">
-        <v>1.0900000000000001E-4</v>
+        <v>3.5100000000000003E-8</v>
       </c>
       <c r="H26" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>5.3499999999999996E-6</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>746</v>
+        <v>917</v>
       </c>
       <c r="B27">
-        <v>1970</v>
+        <v>3849</v>
       </c>
       <c r="C27">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="D27">
-        <v>49.83</v>
+        <v>97.35</v>
       </c>
       <c r="E27" t="s">
         <v>727</v>
       </c>
       <c r="F27">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="G27" s="1">
-        <v>2.5199999999999999E-5</v>
+        <v>2.7599999999999998E-6</v>
       </c>
       <c r="H27" s="1">
-        <v>9.8899999999999995E-3</v>
+        <v>3.0400000000000002E-4</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>747</v>
+        <v>854</v>
       </c>
       <c r="B28">
-        <v>1976</v>
+        <v>7098</v>
       </c>
       <c r="C28">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="D28">
-        <v>49.98</v>
+        <v>179.52</v>
       </c>
       <c r="E28" t="s">
         <v>727</v>
       </c>
       <c r="F28">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="G28" s="1">
-        <v>2.5999999999999998E-5</v>
+        <v>8.9300000000000002E-10</v>
       </c>
       <c r="H28" s="1">
-        <v>9.9600000000000001E-3</v>
+        <v>1.9600000000000001E-7</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>748</v>
+        <v>853</v>
       </c>
       <c r="B29">
-        <v>1656</v>
+        <v>11520</v>
       </c>
       <c r="C29">
-        <v>67</v>
+        <v>396</v>
       </c>
       <c r="D29">
-        <v>41.88</v>
+        <v>291.37</v>
       </c>
       <c r="E29" t="s">
         <v>727</v>
       </c>
       <c r="F29">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="G29" s="1">
-        <v>1.9000000000000001E-4</v>
+        <v>4.7700000000000004E-19</v>
       </c>
       <c r="H29" s="1">
-        <v>4.5100000000000001E-2</v>
+        <v>2.3599999999999999E-16</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>749</v>
+        <v>918</v>
       </c>
       <c r="B30">
-        <v>2386</v>
+        <v>4611</v>
       </c>
       <c r="C30">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="D30">
-        <v>60.35</v>
+        <v>116.62</v>
       </c>
       <c r="E30" t="s">
         <v>727</v>
       </c>
       <c r="F30">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
       <c r="G30" s="1">
-        <v>7.3100000000000003E-6</v>
+        <v>3.9499999999999998E-5</v>
       </c>
       <c r="H30" s="1">
-        <v>4.2399999999999998E-3</v>
+        <v>3.5500000000000002E-3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>750</v>
+        <v>919</v>
       </c>
       <c r="B31">
-        <v>1819</v>
+        <v>4612</v>
       </c>
       <c r="C31">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="D31">
-        <v>46.01</v>
+        <v>116.65</v>
       </c>
       <c r="E31" t="s">
         <v>727</v>
       </c>
       <c r="F31">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
       <c r="G31" s="1">
-        <v>1.34E-4</v>
+        <v>3.96E-5</v>
       </c>
       <c r="H31" s="1">
-        <v>3.3500000000000002E-2</v>
+        <v>3.4099999999999998E-3</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>751</v>
+        <v>856</v>
       </c>
       <c r="B32">
-        <v>2327</v>
+        <v>12657</v>
       </c>
       <c r="C32">
-        <v>92</v>
+        <v>430</v>
       </c>
       <c r="D32">
-        <v>58.86</v>
+        <v>320.12</v>
       </c>
       <c r="E32" t="s">
         <v>727</v>
       </c>
       <c r="F32">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="G32" s="1">
-        <v>2.8E-5</v>
+        <v>4.7799999999999997E-22</v>
       </c>
       <c r="H32" s="1">
-        <v>1.0200000000000001E-2</v>
+        <v>3.1500000000000001E-19</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>752</v>
+        <v>855</v>
       </c>
       <c r="B33">
-        <v>2534</v>
+        <v>11992</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>407</v>
       </c>
       <c r="D33">
-        <v>64.09</v>
+        <v>303.3</v>
       </c>
       <c r="E33" t="s">
         <v>727</v>
       </c>
       <c r="F33">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="G33" s="1">
-        <v>1.2300000000000001E-5</v>
+        <v>5.2900000000000004E-19</v>
       </c>
       <c r="H33" s="1">
-        <v>6.2199999999999998E-3</v>
+        <v>2.0899999999999999E-16</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>753</v>
+        <v>858</v>
       </c>
       <c r="B34">
-        <v>2348</v>
+        <v>11571</v>
       </c>
       <c r="C34">
-        <v>92</v>
+        <v>391</v>
       </c>
       <c r="D34">
-        <v>59.39</v>
+        <v>292.66000000000003</v>
       </c>
       <c r="E34" t="s">
         <v>727</v>
       </c>
       <c r="F34">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="G34" s="1">
-        <v>3.1399999999999998E-5</v>
+        <v>5.1900000000000003E-17</v>
       </c>
       <c r="H34" s="1">
-        <v>1.09E-2</v>
+        <v>1.7100000000000001E-14</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>754</v>
+        <v>859</v>
       </c>
       <c r="B35">
-        <v>2506</v>
+        <v>12975</v>
       </c>
       <c r="C35">
-        <v>98</v>
+        <v>438</v>
       </c>
       <c r="D35">
-        <v>63.38</v>
+        <v>328.17</v>
       </c>
       <c r="E35" t="s">
         <v>727</v>
       </c>
       <c r="F35">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="G35" s="1">
-        <v>2.0699999999999998E-5</v>
+        <v>2.5899999999999998E-22</v>
       </c>
       <c r="H35" s="1">
-        <v>8.5199999999999998E-3</v>
+        <v>2.5700000000000001E-19</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>755</v>
+        <v>860</v>
       </c>
       <c r="B36">
-        <v>2178</v>
+        <v>14274</v>
       </c>
       <c r="C36">
-        <v>84</v>
+        <v>474</v>
       </c>
       <c r="D36">
-        <v>55.09</v>
+        <v>361.02</v>
       </c>
       <c r="E36" t="s">
         <v>727</v>
       </c>
       <c r="F36">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="G36" s="1">
-        <v>1.4100000000000001E-4</v>
+        <v>2.5699999999999999E-26</v>
       </c>
       <c r="H36" s="1">
-        <v>3.4500000000000003E-2</v>
+        <v>5.08E-23</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>756</v>
+        <v>861</v>
       </c>
       <c r="B37">
-        <v>2680</v>
+        <v>18889</v>
       </c>
       <c r="C37">
-        <v>103</v>
+        <v>526</v>
       </c>
       <c r="D37">
-        <v>67.78</v>
+        <v>477.75</v>
       </c>
       <c r="E37" t="s">
         <v>727</v>
       </c>
       <c r="F37">
-        <v>1.52</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G37" s="1">
-        <v>2.0599999999999999E-5</v>
+        <v>9.9200000000000004E-11</v>
       </c>
       <c r="H37" s="1">
-        <v>8.7100000000000007E-3</v>
+        <v>2.4500000000000001E-8</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>757</v>
+        <v>862</v>
       </c>
       <c r="B38">
-        <v>6307</v>
+        <v>20607</v>
       </c>
       <c r="C38">
-        <v>241</v>
+        <v>541</v>
       </c>
       <c r="D38">
-        <v>159.52000000000001</v>
+        <v>521.20000000000005</v>
       </c>
       <c r="E38" t="s">
         <v>727</v>
       </c>
       <c r="F38">
-        <v>1.51</v>
+        <v>1.04</v>
       </c>
       <c r="G38" s="1">
-        <v>4.2200000000000002E-13</v>
+        <v>2.2599999999999999E-4</v>
       </c>
       <c r="H38" s="1">
-        <v>6.6199999999999999E-9</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>758</v>
+        <v>920</v>
       </c>
       <c r="B39">
-        <v>2413</v>
+        <v>2598</v>
       </c>
       <c r="C39">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D39">
-        <v>61.03</v>
+        <v>65.709999999999994</v>
       </c>
       <c r="E39" t="s">
-        <v>727</v>
+        <v>785</v>
       </c>
       <c r="F39">
-        <v>1.51</v>
+        <v>0.5</v>
       </c>
       <c r="G39" s="1">
-        <v>9.1700000000000006E-5</v>
+        <v>4.8199999999999996E-6</v>
       </c>
       <c r="H39" s="1">
-        <v>2.52E-2</v>
+        <v>5.0199999999999995E-4</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
       <c r="B40">
-        <v>2765</v>
+        <v>1376</v>
       </c>
       <c r="C40">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>69.930000000000007</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E40" t="s">
-        <v>727</v>
+        <v>785</v>
       </c>
       <c r="F40">
-        <v>1.5</v>
+        <v>0.43</v>
       </c>
       <c r="G40" s="1">
-        <v>3.4E-5</v>
+        <v>2.2599999999999999E-4</v>
       </c>
       <c r="H40" s="1">
-        <v>1.1599999999999999E-2</v>
+        <v>1.54E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>760</v>
+        <v>921</v>
       </c>
       <c r="B41">
-        <v>3063</v>
+        <v>1955</v>
       </c>
       <c r="C41">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="D41">
-        <v>77.47</v>
+        <v>49.45</v>
       </c>
       <c r="E41" t="s">
-        <v>727</v>
+        <v>785</v>
       </c>
       <c r="F41">
-        <v>1.5</v>
+        <v>0.38</v>
       </c>
       <c r="G41" s="1">
-        <v>1.08E-5</v>
+        <v>6.3499999999999996E-7</v>
       </c>
       <c r="H41" s="1">
-        <v>5.6299999999999996E-3</v>
+        <v>7.8499999999999997E-5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>761</v>
-      </c>
-      <c r="B42">
-        <v>2972</v>
-      </c>
-      <c r="C42">
-        <v>112</v>
-      </c>
-      <c r="D42">
-        <v>75.17</v>
-      </c>
-      <c r="E42" t="s">
-        <v>727</v>
-      </c>
-      <c r="F42">
-        <v>1.49</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1.98E-5</v>
-      </c>
-      <c r="H42" s="1">
-        <v>8.6199999999999992E-3</v>
-      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>762</v>
-      </c>
-      <c r="B43">
-        <v>4668</v>
-      </c>
-      <c r="C43">
-        <v>175</v>
-      </c>
-      <c r="D43">
-        <v>118.06</v>
-      </c>
-      <c r="E43" t="s">
-        <v>727</v>
-      </c>
-      <c r="F43">
-        <v>1.48</v>
-      </c>
-      <c r="G43" s="1">
-        <v>3.3400000000000001E-8</v>
-      </c>
-      <c r="H43" s="1">
-        <v>5.8100000000000003E-5</v>
-      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>763</v>
-      </c>
-      <c r="B44">
-        <v>2991</v>
-      </c>
-      <c r="C44">
-        <v>112</v>
-      </c>
-      <c r="D44">
-        <v>75.650000000000006</v>
-      </c>
-      <c r="E44" t="s">
-        <v>727</v>
-      </c>
-      <c r="F44">
-        <v>1.48</v>
-      </c>
-      <c r="G44" s="1">
-        <v>2.73E-5</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1.0200000000000001E-2</v>
-      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>764</v>
-      </c>
-      <c r="B45">
-        <v>2751</v>
-      </c>
-      <c r="C45">
-        <v>103</v>
-      </c>
-      <c r="D45">
-        <v>69.58</v>
-      </c>
-      <c r="E45" t="s">
-        <v>727</v>
-      </c>
-      <c r="F45">
-        <v>1.48</v>
-      </c>
-      <c r="G45" s="1">
-        <v>5.9200000000000002E-5</v>
-      </c>
-      <c r="H45" s="1">
-        <v>1.78E-2</v>
-      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>765</v>
-      </c>
-      <c r="B46">
-        <v>6917</v>
-      </c>
-      <c r="C46">
-        <v>257</v>
-      </c>
-      <c r="D46">
-        <v>174.95</v>
-      </c>
-      <c r="E46" t="s">
-        <v>727</v>
-      </c>
-      <c r="F46">
-        <v>1.47</v>
-      </c>
-      <c r="G46" s="1">
-        <v>8.3799999999999996E-13</v>
-      </c>
-      <c r="H46" s="1">
-        <v>4.3800000000000002E-9</v>
-      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>766</v>
-      </c>
-      <c r="B47">
-        <v>3700</v>
-      </c>
-      <c r="C47">
-        <v>137</v>
-      </c>
-      <c r="D47">
-        <v>93.58</v>
-      </c>
-      <c r="E47" t="s">
-        <v>727</v>
-      </c>
-      <c r="F47">
-        <v>1.46</v>
-      </c>
-      <c r="G47" s="1">
-        <v>4.3599999999999998E-6</v>
-      </c>
-      <c r="H47" s="1">
-        <v>2.8400000000000001E-3</v>
-      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>767</v>
-      </c>
-      <c r="B48">
-        <v>3031</v>
-      </c>
-      <c r="C48">
-        <v>112</v>
-      </c>
-      <c r="D48">
-        <v>76.66</v>
-      </c>
-      <c r="E48" t="s">
-        <v>727</v>
-      </c>
-      <c r="F48">
-        <v>1.46</v>
-      </c>
-      <c r="G48" s="1">
-        <v>5.1700000000000003E-5</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1.6199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>768</v>
-      </c>
-      <c r="B49">
-        <v>2795</v>
-      </c>
-      <c r="C49">
-        <v>103</v>
-      </c>
-      <c r="D49">
-        <v>70.69</v>
-      </c>
-      <c r="E49" t="s">
-        <v>727</v>
-      </c>
-      <c r="F49">
-        <v>1.46</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1.13E-4</v>
-      </c>
-      <c r="H49" s="1">
-        <v>2.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>769</v>
-      </c>
-      <c r="B50">
-        <v>4359</v>
-      </c>
-      <c r="C50">
-        <v>156</v>
-      </c>
-      <c r="D50">
-        <v>110.25</v>
-      </c>
-      <c r="E50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F50">
-        <v>1.41</v>
-      </c>
-      <c r="G50" s="1">
-        <v>4.6500000000000004E-6</v>
-      </c>
-      <c r="H50" s="1">
-        <v>2.9099999999999998E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>770</v>
-      </c>
-      <c r="B51">
-        <v>5853</v>
-      </c>
-      <c r="C51">
-        <v>209</v>
-      </c>
-      <c r="D51">
-        <v>148.04</v>
-      </c>
-      <c r="E51" t="s">
-        <v>727</v>
-      </c>
-      <c r="F51">
-        <v>1.41</v>
-      </c>
-      <c r="G51" s="1">
-        <v>2.8600000000000001E-8</v>
-      </c>
-      <c r="H51" s="1">
-        <v>5.6100000000000002E-5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>771</v>
-      </c>
-      <c r="B52">
-        <v>3580</v>
-      </c>
-      <c r="C52">
-        <v>127</v>
-      </c>
-      <c r="D52">
-        <v>90.55</v>
-      </c>
-      <c r="E52" t="s">
-        <v>727</v>
-      </c>
-      <c r="F52">
-        <v>1.4</v>
-      </c>
-      <c r="G52" s="1">
-        <v>7.75E-5</v>
-      </c>
-      <c r="H52" s="1">
-        <v>2.2100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>772</v>
-      </c>
-      <c r="B53">
-        <v>3750</v>
-      </c>
-      <c r="C53">
-        <v>133</v>
-      </c>
-      <c r="D53">
-        <v>94.85</v>
-      </c>
-      <c r="E53" t="s">
-        <v>727</v>
-      </c>
-      <c r="F53">
-        <v>1.4</v>
-      </c>
-      <c r="G53" s="1">
-        <v>5.0699999999999999E-5</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1.6199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>773</v>
-      </c>
-      <c r="B54">
-        <v>7635</v>
-      </c>
-      <c r="C54">
-        <v>268</v>
-      </c>
-      <c r="D54">
-        <v>193.11</v>
-      </c>
-      <c r="E54" t="s">
-        <v>727</v>
-      </c>
-      <c r="F54">
-        <v>1.39</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1.2899999999999999E-10</v>
-      </c>
-      <c r="H54" s="1">
-        <v>4.0499999999999999E-7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>774</v>
-      </c>
-      <c r="B55">
-        <v>5366</v>
-      </c>
-      <c r="C55">
-        <v>186</v>
-      </c>
-      <c r="D55">
-        <v>135.72</v>
-      </c>
-      <c r="E55" t="s">
-        <v>727</v>
-      </c>
-      <c r="F55">
-        <v>1.37</v>
-      </c>
-      <c r="G55" s="1">
-        <v>2.5600000000000001E-6</v>
-      </c>
-      <c r="H55" s="1">
-        <v>1.91E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>775</v>
-      </c>
-      <c r="B56">
-        <v>8025</v>
-      </c>
-      <c r="C56">
-        <v>278</v>
-      </c>
-      <c r="D56">
-        <v>202.97</v>
-      </c>
-      <c r="E56" t="s">
-        <v>727</v>
-      </c>
-      <c r="F56">
-        <v>1.37</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1.5500000000000001E-10</v>
-      </c>
-      <c r="H56" s="1">
-        <v>4.0600000000000001E-7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>776</v>
-      </c>
-      <c r="B57">
-        <v>5577</v>
-      </c>
-      <c r="C57">
-        <v>193</v>
-      </c>
-      <c r="D57">
-        <v>141.05000000000001</v>
-      </c>
-      <c r="E57" t="s">
-        <v>727</v>
-      </c>
-      <c r="F57">
-        <v>1.37</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1.3200000000000001E-6</v>
-      </c>
-      <c r="H57" s="1">
-        <v>1.15E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>777</v>
-      </c>
-      <c r="B58">
-        <v>5494</v>
-      </c>
-      <c r="C58">
-        <v>189</v>
-      </c>
-      <c r="D58">
-        <v>138.96</v>
-      </c>
-      <c r="E58" t="s">
-        <v>727</v>
-      </c>
-      <c r="F58">
-        <v>1.36</v>
-      </c>
-      <c r="G58" s="1">
-        <v>3.0800000000000002E-6</v>
-      </c>
-      <c r="H58" s="1">
-        <v>2.1900000000000001E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>778</v>
-      </c>
-      <c r="B59">
-        <v>4857</v>
-      </c>
-      <c r="C59">
-        <v>164</v>
-      </c>
-      <c r="D59">
-        <v>122.84</v>
-      </c>
-      <c r="E59" t="s">
-        <v>727</v>
-      </c>
-      <c r="F59">
-        <v>1.34</v>
-      </c>
-      <c r="G59" s="1">
-        <v>6.7299999999999996E-5</v>
-      </c>
-      <c r="H59" s="1">
-        <v>1.9900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>779</v>
-      </c>
-      <c r="B60">
-        <v>5543</v>
-      </c>
-      <c r="C60">
-        <v>187</v>
-      </c>
-      <c r="D60">
-        <v>140.19999999999999</v>
-      </c>
-      <c r="E60" t="s">
-        <v>727</v>
-      </c>
-      <c r="F60">
-        <v>1.33</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1.34E-5</v>
-      </c>
-      <c r="H60" s="1">
-        <v>6.5500000000000003E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>780</v>
-      </c>
-      <c r="B61">
-        <v>6098</v>
-      </c>
-      <c r="C61">
-        <v>198</v>
-      </c>
-      <c r="D61">
-        <v>154.22999999999999</v>
-      </c>
-      <c r="E61" t="s">
-        <v>727</v>
-      </c>
-      <c r="F61">
-        <v>1.28</v>
-      </c>
-      <c r="G61" s="1">
-        <v>6.8399999999999996E-5</v>
-      </c>
-      <c r="H61" s="1">
-        <v>1.9900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>781</v>
-      </c>
-      <c r="B62">
-        <v>6621</v>
-      </c>
-      <c r="C62">
-        <v>214</v>
-      </c>
-      <c r="D62">
-        <v>167.46</v>
-      </c>
-      <c r="E62" t="s">
-        <v>727</v>
-      </c>
-      <c r="F62">
-        <v>1.28</v>
-      </c>
-      <c r="G62" s="1">
-        <v>3.7599999999999999E-5</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>782</v>
-      </c>
-      <c r="B63">
-        <v>14977</v>
-      </c>
-      <c r="C63">
-        <v>420</v>
-      </c>
-      <c r="D63">
-        <v>378.8</v>
-      </c>
-      <c r="E63" t="s">
-        <v>727</v>
-      </c>
-      <c r="F63">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="H63" s="1">
-        <v>4.3400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>783</v>
-      </c>
-      <c r="B64">
-        <v>20677</v>
-      </c>
-      <c r="C64">
-        <v>543</v>
-      </c>
-      <c r="D64">
-        <v>522.97</v>
-      </c>
-      <c r="E64" t="s">
-        <v>727</v>
-      </c>
-      <c r="F64">
-        <v>1.04</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1.06E-4</v>
-      </c>
-      <c r="H64" s="1">
-        <v>2.7699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>784</v>
-      </c>
-      <c r="B65">
-        <v>2192</v>
-      </c>
-      <c r="C65">
-        <v>27</v>
-      </c>
-      <c r="D65">
-        <v>55.44</v>
-      </c>
-      <c r="E65" t="s">
-        <v>785</v>
-      </c>
-      <c r="F65">
-        <v>0.49</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1.88E-5</v>
-      </c>
-      <c r="H65" s="1">
-        <v>8.3999999999999995E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>786</v>
-      </c>
-      <c r="B66">
-        <v>1306</v>
-      </c>
-      <c r="C66">
-        <v>13</v>
-      </c>
-      <c r="D66">
-        <v>33.03</v>
-      </c>
-      <c r="E66" t="s">
-        <v>785</v>
-      </c>
-      <c r="F66">
-        <v>0.39</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1.06E-4</v>
-      </c>
-      <c r="H66" s="1">
-        <v>2.8199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>787</v>
-      </c>
-      <c r="B67">
-        <v>1876</v>
-      </c>
-      <c r="C67">
-        <v>16</v>
-      </c>
-      <c r="D67">
-        <v>47.45</v>
-      </c>
-      <c r="E67" t="s">
-        <v>785</v>
-      </c>
-      <c r="F67">
-        <v>0.34</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1.04E-7</v>
-      </c>
-      <c r="H67" s="1">
-        <v>1.4799999999999999E-4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>788</v>
-      </c>
-      <c r="B68">
-        <v>1651</v>
-      </c>
-      <c r="C68">
-        <v>11</v>
-      </c>
-      <c r="D68">
-        <v>41.76</v>
-      </c>
-      <c r="E68" t="s">
-        <v>785</v>
-      </c>
-      <c r="F68">
-        <v>0.26</v>
-      </c>
-      <c r="G68" s="1">
-        <v>1.52E-8</v>
-      </c>
-      <c r="H68" s="1">
-        <v>3.4E-5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>789</v>
-      </c>
-      <c r="B69">
-        <v>794</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69">
-        <v>20.079999999999998</v>
-      </c>
-      <c r="E69" t="s">
-        <v>785</v>
-      </c>
-      <c r="F69">
-        <v>0.15</v>
-      </c>
-      <c r="G69" s="1">
-        <v>6.3600000000000001E-6</v>
-      </c>
-      <c r="H69" s="1">
-        <v>3.8300000000000001E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>790</v>
-      </c>
-      <c r="B70">
-        <v>695</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>17.579999999999998</v>
-      </c>
-      <c r="E70" t="s">
-        <v>785</v>
-      </c>
-      <c r="F70">
-        <v>0.11</v>
-      </c>
-      <c r="G70" s="1">
-        <v>8.7199999999999995E-6</v>
-      </c>
-      <c r="H70" s="1">
-        <v>4.7099999999999998E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>791</v>
-      </c>
-      <c r="B71">
-        <v>1151</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>29.11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>785</v>
-      </c>
-      <c r="F71">
-        <v>0.03</v>
-      </c>
-      <c r="G71" s="1">
-        <v>7.6599999999999993E-12</v>
-      </c>
-      <c r="H71" s="1">
-        <v>2.9999999999999997E-8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>792</v>
-      </c>
-      <c r="B72">
-        <v>1252</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>31.67</v>
-      </c>
-      <c r="E72" t="s">
-        <v>785</v>
-      </c>
-      <c r="F72">
-        <v>0.03</v>
-      </c>
-      <c r="G72" s="1">
-        <v>6.9099999999999998E-13</v>
-      </c>
-      <c r="H72" s="1">
-        <v>5.4100000000000001E-9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>793</v>
-      </c>
-      <c r="B73">
-        <v>548</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>13.86</v>
-      </c>
-      <c r="E73" t="s">
-        <v>785</v>
-      </c>
-      <c r="F73" t="s">
-        <v>794</v>
-      </c>
-      <c r="G73" s="1">
-        <v>1.9099999999999999E-6</v>
-      </c>
-      <c r="H73" s="1">
-        <v>1.58E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>795</v>
-      </c>
-      <c r="B74">
-        <v>606</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>15.33</v>
-      </c>
-      <c r="E74" t="s">
-        <v>785</v>
-      </c>
-      <c r="F74" t="s">
-        <v>794</v>
-      </c>
-      <c r="G74" s="1">
-        <v>3.8200000000000001E-7</v>
-      </c>
-      <c r="H74" s="1">
-        <v>3.9899999999999999E-4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>796</v>
-      </c>
-      <c r="B75">
-        <v>637</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>16.11</v>
-      </c>
-      <c r="E75" t="s">
-        <v>785</v>
-      </c>
-      <c r="F75" t="s">
-        <v>794</v>
-      </c>
-      <c r="G75" s="1">
-        <v>1.72E-7</v>
-      </c>
-      <c r="H75" s="1">
-        <v>2.0799999999999999E-4</v>
-      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11309,6 +10654,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13159,10 +12507,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13217,7 +12565,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>718</v>
+        <v>863</v>
       </c>
       <c r="B7" t="s">
         <v>719</v>
@@ -13243,1771 +12591,667 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>726</v>
+        <v>892</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>0.38</v>
+        <v>7.13</v>
       </c>
       <c r="E8" t="s">
         <v>727</v>
       </c>
       <c r="F8">
-        <v>13.18</v>
+        <v>3.22</v>
       </c>
       <c r="G8" s="1">
-        <v>1.02E-4</v>
+        <v>2.3599999999999999E-6</v>
       </c>
       <c r="H8" s="1">
-        <v>2.76E-2</v>
+        <v>1.31E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>728</v>
+        <v>893</v>
       </c>
       <c r="B9">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>0.73</v>
+        <v>4.7</v>
       </c>
       <c r="E9" t="s">
         <v>727</v>
       </c>
       <c r="F9">
-        <v>8.18</v>
+        <v>3.19</v>
       </c>
       <c r="G9" s="1">
-        <v>1.94E-4</v>
+        <v>1.4899999999999999E-4</v>
       </c>
       <c r="H9" s="1">
-        <v>4.53E-2</v>
+        <v>4.1200000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>729</v>
+        <v>894</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>567</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>0.73</v>
+        <v>14.34</v>
       </c>
       <c r="E10" t="s">
         <v>727</v>
       </c>
       <c r="F10">
-        <v>8.18</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G10" s="1">
-        <v>1.94E-4</v>
+        <v>1.3599999999999999E-6</v>
       </c>
       <c r="H10" s="1">
-        <v>4.4600000000000001E-2</v>
+        <v>8.4699999999999999E-4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>730</v>
+        <v>895</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>586</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>2.2000000000000002</v>
+        <v>14.82</v>
       </c>
       <c r="E11" t="s">
         <v>727</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2.29</v>
       </c>
       <c r="G11" s="1">
-        <v>3.01E-5</v>
+        <v>1.63E-5</v>
       </c>
       <c r="H11" s="1">
-        <v>1.0699999999999999E-2</v>
+        <v>5.8100000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>731</v>
+        <v>896</v>
       </c>
       <c r="B12">
-        <v>128</v>
+        <v>649</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>3.24</v>
+        <v>16.41</v>
       </c>
       <c r="E12" t="s">
         <v>727</v>
       </c>
       <c r="F12">
-        <v>4.0199999999999996</v>
+        <v>2.25</v>
       </c>
       <c r="G12" s="1">
-        <v>4.8399999999999997E-5</v>
+        <v>1.3200000000000001E-5</v>
       </c>
       <c r="H12" s="1">
-        <v>1.5800000000000002E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>732</v>
+        <v>897</v>
       </c>
       <c r="B13">
-        <v>129</v>
+        <v>650</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>3.26</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="E13" t="s">
         <v>727</v>
       </c>
       <c r="F13">
-        <v>3.98</v>
+        <v>2.25</v>
       </c>
       <c r="G13" s="1">
-        <v>5.2099999999999999E-5</v>
+        <v>1.34E-5</v>
       </c>
       <c r="H13" s="1">
-        <v>1.6E-2</v>
+        <v>5.1399999999999996E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>733</v>
+        <v>898</v>
       </c>
       <c r="B14">
-        <v>333</v>
+        <v>643</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>8.42</v>
+        <v>16.260000000000002</v>
       </c>
       <c r="E14" t="s">
         <v>727</v>
       </c>
       <c r="F14">
-        <v>2.97</v>
+        <v>2.21</v>
       </c>
       <c r="G14" s="1">
-        <v>3.45E-6</v>
+        <v>2.1699999999999999E-5</v>
       </c>
       <c r="H14" s="1">
-        <v>2.3500000000000001E-3</v>
+        <v>6.7600000000000004E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>734</v>
+        <v>899</v>
       </c>
       <c r="B15">
-        <v>380</v>
+        <v>2361</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="D15">
-        <v>9.61</v>
+        <v>59.72</v>
       </c>
       <c r="E15" t="s">
         <v>727</v>
       </c>
       <c r="F15">
-        <v>2.91</v>
+        <v>1.57</v>
       </c>
       <c r="G15" s="1">
-        <v>1.2699999999999999E-6</v>
+        <v>1.7E-5</v>
       </c>
       <c r="H15" s="1">
-        <v>1.17E-3</v>
+        <v>5.64E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>735</v>
+        <v>900</v>
       </c>
       <c r="B16">
-        <v>549</v>
+        <v>5555</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="D16">
-        <v>13.89</v>
+        <v>140.5</v>
       </c>
       <c r="E16" t="s">
         <v>727</v>
       </c>
       <c r="F16">
-        <v>2.74</v>
+        <v>1.42</v>
       </c>
       <c r="G16" s="1">
-        <v>7.3500000000000003E-8</v>
+        <v>3.8999999999999998E-8</v>
       </c>
       <c r="H16" s="1">
-        <v>1.15E-4</v>
+        <v>3.2400000000000001E-5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>736</v>
+        <v>901</v>
       </c>
       <c r="B17">
-        <v>561</v>
+        <v>5376</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="D17">
-        <v>14.19</v>
+        <v>135.97</v>
       </c>
       <c r="E17" t="s">
         <v>727</v>
       </c>
       <c r="F17">
-        <v>2.68</v>
+        <v>1.3</v>
       </c>
       <c r="G17" s="1">
-        <v>1.23E-7</v>
+        <v>9.8900000000000005E-5</v>
       </c>
       <c r="H17" s="1">
-        <v>1.6100000000000001E-4</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>737</v>
+        <v>871</v>
       </c>
       <c r="B18">
-        <v>571</v>
+        <v>9453</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>308</v>
       </c>
       <c r="D18">
-        <v>14.44</v>
+        <v>239.09</v>
       </c>
       <c r="E18" t="s">
         <v>727</v>
       </c>
       <c r="F18">
-        <v>2.63</v>
+        <v>1.29</v>
       </c>
       <c r="G18" s="1">
-        <v>1.8799999999999999E-7</v>
+        <v>7.1900000000000002E-9</v>
       </c>
       <c r="H18" s="1">
-        <v>2.1000000000000001E-4</v>
+        <v>7.1799999999999999E-6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>738</v>
+        <v>872</v>
       </c>
       <c r="B19">
-        <v>439</v>
+        <v>14083</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="D19">
-        <v>11.1</v>
+        <v>356.19</v>
       </c>
       <c r="E19" t="s">
         <v>727</v>
       </c>
       <c r="F19">
-        <v>2.52</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G19" s="1">
-        <v>2.3799999999999999E-5</v>
+        <v>1.19E-6</v>
       </c>
       <c r="H19" s="1">
-        <v>9.58E-3</v>
+        <v>8.4999999999999995E-4</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>739</v>
+        <v>902</v>
       </c>
       <c r="B20">
-        <v>648</v>
+        <v>2409</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>16.39</v>
+        <v>60.93</v>
       </c>
       <c r="E20" t="s">
-        <v>727</v>
+        <v>785</v>
       </c>
       <c r="F20">
-        <v>2.44</v>
+        <v>0.2</v>
       </c>
       <c r="G20" s="1">
-        <v>5.82E-7</v>
+        <v>6.9300000000000002E-15</v>
       </c>
       <c r="H20" s="1">
-        <v>5.6999999999999998E-4</v>
+        <v>1.7300000000000001E-11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>740</v>
+        <v>903</v>
       </c>
       <c r="B21">
-        <v>613</v>
+        <v>2409</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>15.5</v>
+        <v>60.93</v>
       </c>
       <c r="E21" t="s">
-        <v>727</v>
+        <v>785</v>
       </c>
       <c r="F21">
-        <v>2.2599999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G21" s="1">
-        <v>1.5400000000000002E-5</v>
+        <v>6.9300000000000002E-15</v>
       </c>
       <c r="H21" s="1">
-        <v>7.3400000000000002E-3</v>
+        <v>1.1500000000000001E-11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>741</v>
+        <v>904</v>
       </c>
       <c r="B22">
+        <v>2194</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>55.49</v>
+      </c>
+      <c r="E22" t="s">
         <v>785</v>
       </c>
-      <c r="C22">
-        <v>44</v>
-      </c>
-      <c r="D22">
-        <v>19.850000000000001</v>
-      </c>
-      <c r="E22" t="s">
-        <v>727</v>
-      </c>
       <c r="F22">
-        <v>2.2200000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G22" s="1">
-        <v>1.9199999999999998E-6</v>
+        <v>6.8299999999999996E-16</v>
       </c>
       <c r="H22" s="1">
-        <v>1.5100000000000001E-3</v>
+        <v>3.4099999999999998E-12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>742</v>
+        <v>905</v>
       </c>
       <c r="B23">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>17.55</v>
+        <v>18.79</v>
       </c>
       <c r="E23" t="s">
-        <v>727</v>
+        <v>785</v>
       </c>
       <c r="F23">
-        <v>2.0499999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G23" s="1">
-        <v>8.3399999999999994E-5</v>
+        <v>2.8899999999999999E-6</v>
       </c>
       <c r="H23" s="1">
-        <v>2.3300000000000001E-2</v>
+        <v>1.31E-3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>743</v>
+        <v>906</v>
       </c>
       <c r="B24">
-        <v>1082</v>
+        <v>528</v>
       </c>
       <c r="C24">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>27.37</v>
+        <v>13.35</v>
       </c>
       <c r="E24" t="s">
-        <v>727</v>
-      </c>
-      <c r="F24">
-        <v>1.94</v>
+        <v>785</v>
+      </c>
+      <c r="F24" t="s">
+        <v>794</v>
       </c>
       <c r="G24" s="1">
-        <v>8.0099999999999995E-6</v>
+        <v>2.7700000000000002E-6</v>
       </c>
       <c r="H24" s="1">
-        <v>4.4799999999999996E-3</v>
+        <v>1.3799999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>744</v>
+        <v>907</v>
       </c>
       <c r="B25">
-        <v>1022</v>
+        <v>1161</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>25.85</v>
+        <v>29.36</v>
       </c>
       <c r="E25" t="s">
-        <v>727</v>
-      </c>
-      <c r="F25">
-        <v>1.93</v>
+        <v>785</v>
+      </c>
+      <c r="F25" t="s">
+        <v>794</v>
       </c>
       <c r="G25" s="1">
-        <v>1.73E-5</v>
+        <v>1.77E-13</v>
       </c>
       <c r="H25" s="1">
-        <v>7.9799999999999992E-3</v>
+        <v>2.2100000000000001E-10</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>745</v>
-      </c>
-      <c r="B26">
-        <v>1336</v>
-      </c>
-      <c r="C26">
-        <v>58</v>
-      </c>
-      <c r="D26">
-        <v>33.79</v>
-      </c>
-      <c r="E26" t="s">
-        <v>727</v>
-      </c>
-      <c r="F26">
-        <v>1.72</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1.0900000000000001E-4</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>746</v>
-      </c>
-      <c r="B27">
-        <v>1970</v>
-      </c>
-      <c r="C27">
-        <v>81</v>
-      </c>
-      <c r="D27">
-        <v>49.83</v>
-      </c>
-      <c r="E27" t="s">
-        <v>727</v>
-      </c>
-      <c r="F27">
-        <v>1.63</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2.5199999999999999E-5</v>
-      </c>
-      <c r="H27" s="1">
-        <v>9.8899999999999995E-3</v>
-      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>747</v>
-      </c>
-      <c r="B28">
-        <v>1976</v>
-      </c>
-      <c r="C28">
-        <v>81</v>
-      </c>
-      <c r="D28">
-        <v>49.98</v>
-      </c>
-      <c r="E28" t="s">
-        <v>727</v>
-      </c>
-      <c r="F28">
-        <v>1.62</v>
-      </c>
-      <c r="G28" s="1">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="H28" s="1">
-        <v>9.9600000000000001E-3</v>
-      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>748</v>
-      </c>
-      <c r="B29">
-        <v>1656</v>
-      </c>
-      <c r="C29">
-        <v>67</v>
-      </c>
-      <c r="D29">
-        <v>41.88</v>
-      </c>
-      <c r="E29" t="s">
-        <v>727</v>
-      </c>
-      <c r="F29">
-        <v>1.6</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="H29" s="1">
-        <v>4.5100000000000001E-2</v>
-      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>749</v>
-      </c>
-      <c r="B30">
-        <v>2386</v>
-      </c>
-      <c r="C30">
-        <v>96</v>
-      </c>
-      <c r="D30">
-        <v>60.35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>727</v>
-      </c>
-      <c r="F30">
-        <v>1.59</v>
-      </c>
-      <c r="G30" s="1">
-        <v>7.3100000000000003E-6</v>
-      </c>
-      <c r="H30" s="1">
-        <v>4.2399999999999998E-3</v>
-      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>750</v>
-      </c>
-      <c r="B31">
-        <v>1819</v>
-      </c>
-      <c r="C31">
-        <v>73</v>
-      </c>
-      <c r="D31">
-        <v>46.01</v>
-      </c>
-      <c r="E31" t="s">
-        <v>727</v>
-      </c>
-      <c r="F31">
-        <v>1.59</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1.34E-4</v>
-      </c>
-      <c r="H31" s="1">
-        <v>3.3500000000000002E-2</v>
-      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>751</v>
-      </c>
-      <c r="B32">
-        <v>2327</v>
-      </c>
-      <c r="C32">
-        <v>92</v>
-      </c>
-      <c r="D32">
-        <v>58.86</v>
-      </c>
-      <c r="E32" t="s">
-        <v>727</v>
-      </c>
-      <c r="F32">
-        <v>1.56</v>
-      </c>
-      <c r="G32" s="1">
-        <v>2.8E-5</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>752</v>
-      </c>
-      <c r="B33">
-        <v>2534</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33">
-        <v>64.09</v>
-      </c>
-      <c r="E33" t="s">
-        <v>727</v>
-      </c>
-      <c r="F33">
-        <v>1.56</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1.2300000000000001E-5</v>
-      </c>
-      <c r="H33" s="1">
-        <v>6.2199999999999998E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>753</v>
-      </c>
-      <c r="B34">
-        <v>2348</v>
-      </c>
-      <c r="C34">
-        <v>92</v>
-      </c>
-      <c r="D34">
-        <v>59.39</v>
-      </c>
-      <c r="E34" t="s">
-        <v>727</v>
-      </c>
-      <c r="F34">
-        <v>1.55</v>
-      </c>
-      <c r="G34" s="1">
-        <v>3.1399999999999998E-5</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1.09E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>754</v>
-      </c>
-      <c r="B35">
-        <v>2506</v>
-      </c>
-      <c r="C35">
-        <v>98</v>
-      </c>
-      <c r="D35">
-        <v>63.38</v>
-      </c>
-      <c r="E35" t="s">
-        <v>727</v>
-      </c>
-      <c r="F35">
-        <v>1.55</v>
-      </c>
-      <c r="G35" s="1">
-        <v>2.0699999999999998E-5</v>
-      </c>
-      <c r="H35" s="1">
-        <v>8.5199999999999998E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>755</v>
-      </c>
-      <c r="B36">
-        <v>2178</v>
-      </c>
-      <c r="C36">
-        <v>84</v>
-      </c>
-      <c r="D36">
-        <v>55.09</v>
-      </c>
-      <c r="E36" t="s">
-        <v>727</v>
-      </c>
-      <c r="F36">
-        <v>1.52</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1.4100000000000001E-4</v>
-      </c>
-      <c r="H36" s="1">
-        <v>3.4500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>756</v>
-      </c>
-      <c r="B37">
-        <v>2680</v>
-      </c>
-      <c r="C37">
-        <v>103</v>
-      </c>
-      <c r="D37">
-        <v>67.78</v>
-      </c>
-      <c r="E37" t="s">
-        <v>727</v>
-      </c>
-      <c r="F37">
-        <v>1.52</v>
-      </c>
-      <c r="G37" s="1">
-        <v>2.0599999999999999E-5</v>
-      </c>
-      <c r="H37" s="1">
-        <v>8.7100000000000007E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>757</v>
-      </c>
-      <c r="B38">
-        <v>6307</v>
-      </c>
-      <c r="C38">
-        <v>241</v>
-      </c>
-      <c r="D38">
-        <v>159.52000000000001</v>
-      </c>
-      <c r="E38" t="s">
-        <v>727</v>
-      </c>
-      <c r="F38">
-        <v>1.51</v>
-      </c>
-      <c r="G38" s="1">
-        <v>4.2200000000000002E-13</v>
-      </c>
-      <c r="H38" s="1">
-        <v>6.6199999999999999E-9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>758</v>
-      </c>
-      <c r="B39">
-        <v>2413</v>
-      </c>
-      <c r="C39">
-        <v>92</v>
-      </c>
-      <c r="D39">
-        <v>61.03</v>
-      </c>
-      <c r="E39" t="s">
-        <v>727</v>
-      </c>
-      <c r="F39">
-        <v>1.51</v>
-      </c>
-      <c r="G39" s="1">
-        <v>9.1700000000000006E-5</v>
-      </c>
-      <c r="H39" s="1">
-        <v>2.52E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>759</v>
-      </c>
-      <c r="B40">
-        <v>2765</v>
-      </c>
-      <c r="C40">
-        <v>105</v>
-      </c>
-      <c r="D40">
-        <v>69.930000000000007</v>
-      </c>
-      <c r="E40" t="s">
-        <v>727</v>
-      </c>
-      <c r="F40">
-        <v>1.5</v>
-      </c>
-      <c r="G40" s="1">
-        <v>3.4E-5</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1.1599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>760</v>
-      </c>
-      <c r="B41">
-        <v>3063</v>
-      </c>
-      <c r="C41">
-        <v>116</v>
-      </c>
-      <c r="D41">
-        <v>77.47</v>
-      </c>
-      <c r="E41" t="s">
-        <v>727</v>
-      </c>
-      <c r="F41">
-        <v>1.5</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1.08E-5</v>
-      </c>
-      <c r="H41" s="1">
-        <v>5.6299999999999996E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>761</v>
-      </c>
-      <c r="B42">
-        <v>2972</v>
-      </c>
-      <c r="C42">
-        <v>112</v>
-      </c>
-      <c r="D42">
-        <v>75.17</v>
-      </c>
-      <c r="E42" t="s">
-        <v>727</v>
-      </c>
-      <c r="F42">
-        <v>1.49</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1.98E-5</v>
-      </c>
-      <c r="H42" s="1">
-        <v>8.6199999999999992E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>762</v>
-      </c>
-      <c r="B43">
-        <v>4668</v>
-      </c>
-      <c r="C43">
-        <v>175</v>
-      </c>
-      <c r="D43">
-        <v>118.06</v>
-      </c>
-      <c r="E43" t="s">
-        <v>727</v>
-      </c>
-      <c r="F43">
-        <v>1.48</v>
-      </c>
-      <c r="G43" s="1">
-        <v>3.3400000000000001E-8</v>
-      </c>
-      <c r="H43" s="1">
-        <v>5.8100000000000003E-5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>763</v>
-      </c>
-      <c r="B44">
-        <v>2991</v>
-      </c>
-      <c r="C44">
-        <v>112</v>
-      </c>
-      <c r="D44">
-        <v>75.650000000000006</v>
-      </c>
-      <c r="E44" t="s">
-        <v>727</v>
-      </c>
-      <c r="F44">
-        <v>1.48</v>
-      </c>
-      <c r="G44" s="1">
-        <v>2.73E-5</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>764</v>
-      </c>
-      <c r="B45">
-        <v>2751</v>
-      </c>
-      <c r="C45">
-        <v>103</v>
-      </c>
-      <c r="D45">
-        <v>69.58</v>
-      </c>
-      <c r="E45" t="s">
-        <v>727</v>
-      </c>
-      <c r="F45">
-        <v>1.48</v>
-      </c>
-      <c r="G45" s="1">
-        <v>5.9200000000000002E-5</v>
-      </c>
-      <c r="H45" s="1">
-        <v>1.78E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>765</v>
-      </c>
-      <c r="B46">
-        <v>6917</v>
-      </c>
-      <c r="C46">
-        <v>257</v>
-      </c>
-      <c r="D46">
-        <v>174.95</v>
-      </c>
-      <c r="E46" t="s">
-        <v>727</v>
-      </c>
-      <c r="F46">
-        <v>1.47</v>
-      </c>
-      <c r="G46" s="1">
-        <v>8.3799999999999996E-13</v>
-      </c>
-      <c r="H46" s="1">
-        <v>4.3800000000000002E-9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>766</v>
-      </c>
-      <c r="B47">
-        <v>3700</v>
-      </c>
-      <c r="C47">
-        <v>137</v>
-      </c>
-      <c r="D47">
-        <v>93.58</v>
-      </c>
-      <c r="E47" t="s">
-        <v>727</v>
-      </c>
-      <c r="F47">
-        <v>1.46</v>
-      </c>
-      <c r="G47" s="1">
-        <v>4.3599999999999998E-6</v>
-      </c>
-      <c r="H47" s="1">
-        <v>2.8400000000000001E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>767</v>
-      </c>
-      <c r="B48">
-        <v>3031</v>
-      </c>
-      <c r="C48">
-        <v>112</v>
-      </c>
-      <c r="D48">
-        <v>76.66</v>
-      </c>
-      <c r="E48" t="s">
-        <v>727</v>
-      </c>
-      <c r="F48">
-        <v>1.46</v>
-      </c>
-      <c r="G48" s="1">
-        <v>5.1700000000000003E-5</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1.6199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>768</v>
-      </c>
-      <c r="B49">
-        <v>2795</v>
-      </c>
-      <c r="C49">
-        <v>103</v>
-      </c>
-      <c r="D49">
-        <v>70.69</v>
-      </c>
-      <c r="E49" t="s">
-        <v>727</v>
-      </c>
-      <c r="F49">
-        <v>1.46</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1.13E-4</v>
-      </c>
-      <c r="H49" s="1">
-        <v>2.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>769</v>
-      </c>
-      <c r="B50">
-        <v>4359</v>
-      </c>
-      <c r="C50">
-        <v>156</v>
-      </c>
-      <c r="D50">
-        <v>110.25</v>
-      </c>
-      <c r="E50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F50">
-        <v>1.41</v>
-      </c>
-      <c r="G50" s="1">
-        <v>4.6500000000000004E-6</v>
-      </c>
-      <c r="H50" s="1">
-        <v>2.9099999999999998E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>770</v>
-      </c>
-      <c r="B51">
-        <v>5853</v>
-      </c>
-      <c r="C51">
-        <v>209</v>
-      </c>
-      <c r="D51">
-        <v>148.04</v>
-      </c>
-      <c r="E51" t="s">
-        <v>727</v>
-      </c>
-      <c r="F51">
-        <v>1.41</v>
-      </c>
-      <c r="G51" s="1">
-        <v>2.8600000000000001E-8</v>
-      </c>
-      <c r="H51" s="1">
-        <v>5.6100000000000002E-5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>771</v>
-      </c>
-      <c r="B52">
-        <v>3580</v>
-      </c>
-      <c r="C52">
-        <v>127</v>
-      </c>
-      <c r="D52">
-        <v>90.55</v>
-      </c>
-      <c r="E52" t="s">
-        <v>727</v>
-      </c>
-      <c r="F52">
-        <v>1.4</v>
-      </c>
-      <c r="G52" s="1">
-        <v>7.75E-5</v>
-      </c>
-      <c r="H52" s="1">
-        <v>2.2100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>772</v>
-      </c>
-      <c r="B53">
-        <v>3750</v>
-      </c>
-      <c r="C53">
-        <v>133</v>
-      </c>
-      <c r="D53">
-        <v>94.85</v>
-      </c>
-      <c r="E53" t="s">
-        <v>727</v>
-      </c>
-      <c r="F53">
-        <v>1.4</v>
-      </c>
-      <c r="G53" s="1">
-        <v>5.0699999999999999E-5</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1.6199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>773</v>
-      </c>
-      <c r="B54">
-        <v>7635</v>
-      </c>
-      <c r="C54">
-        <v>268</v>
-      </c>
-      <c r="D54">
-        <v>193.11</v>
-      </c>
-      <c r="E54" t="s">
-        <v>727</v>
-      </c>
-      <c r="F54">
-        <v>1.39</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1.2899999999999999E-10</v>
-      </c>
-      <c r="H54" s="1">
-        <v>4.0499999999999999E-7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>774</v>
-      </c>
-      <c r="B55">
-        <v>5366</v>
-      </c>
-      <c r="C55">
-        <v>186</v>
-      </c>
-      <c r="D55">
-        <v>135.72</v>
-      </c>
-      <c r="E55" t="s">
-        <v>727</v>
-      </c>
-      <c r="F55">
-        <v>1.37</v>
-      </c>
-      <c r="G55" s="1">
-        <v>2.5600000000000001E-6</v>
-      </c>
-      <c r="H55" s="1">
-        <v>1.91E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>775</v>
-      </c>
-      <c r="B56">
-        <v>8025</v>
-      </c>
-      <c r="C56">
-        <v>278</v>
-      </c>
-      <c r="D56">
-        <v>202.97</v>
-      </c>
-      <c r="E56" t="s">
-        <v>727</v>
-      </c>
-      <c r="F56">
-        <v>1.37</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1.5500000000000001E-10</v>
-      </c>
-      <c r="H56" s="1">
-        <v>4.0600000000000001E-7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>776</v>
-      </c>
-      <c r="B57">
-        <v>5577</v>
-      </c>
-      <c r="C57">
-        <v>193</v>
-      </c>
-      <c r="D57">
-        <v>141.05000000000001</v>
-      </c>
-      <c r="E57" t="s">
-        <v>727</v>
-      </c>
-      <c r="F57">
-        <v>1.37</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1.3200000000000001E-6</v>
-      </c>
-      <c r="H57" s="1">
-        <v>1.15E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>777</v>
-      </c>
-      <c r="B58">
-        <v>5494</v>
-      </c>
-      <c r="C58">
-        <v>189</v>
-      </c>
-      <c r="D58">
-        <v>138.96</v>
-      </c>
-      <c r="E58" t="s">
-        <v>727</v>
-      </c>
-      <c r="F58">
-        <v>1.36</v>
-      </c>
-      <c r="G58" s="1">
-        <v>3.0800000000000002E-6</v>
-      </c>
-      <c r="H58" s="1">
-        <v>2.1900000000000001E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>778</v>
-      </c>
-      <c r="B59">
-        <v>4857</v>
-      </c>
-      <c r="C59">
-        <v>164</v>
-      </c>
-      <c r="D59">
-        <v>122.84</v>
-      </c>
-      <c r="E59" t="s">
-        <v>727</v>
-      </c>
-      <c r="F59">
-        <v>1.34</v>
-      </c>
-      <c r="G59" s="1">
-        <v>6.7299999999999996E-5</v>
-      </c>
-      <c r="H59" s="1">
-        <v>1.9900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>779</v>
-      </c>
-      <c r="B60">
-        <v>5543</v>
-      </c>
-      <c r="C60">
-        <v>187</v>
-      </c>
-      <c r="D60">
-        <v>140.19999999999999</v>
-      </c>
-      <c r="E60" t="s">
-        <v>727</v>
-      </c>
-      <c r="F60">
-        <v>1.33</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1.34E-5</v>
-      </c>
-      <c r="H60" s="1">
-        <v>6.5500000000000003E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>780</v>
-      </c>
-      <c r="B61">
-        <v>6098</v>
-      </c>
-      <c r="C61">
-        <v>198</v>
-      </c>
-      <c r="D61">
-        <v>154.22999999999999</v>
-      </c>
-      <c r="E61" t="s">
-        <v>727</v>
-      </c>
-      <c r="F61">
-        <v>1.28</v>
-      </c>
-      <c r="G61" s="1">
-        <v>6.8399999999999996E-5</v>
-      </c>
-      <c r="H61" s="1">
-        <v>1.9900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>781</v>
-      </c>
-      <c r="B62">
-        <v>6621</v>
-      </c>
-      <c r="C62">
-        <v>214</v>
-      </c>
-      <c r="D62">
-        <v>167.46</v>
-      </c>
-      <c r="E62" t="s">
-        <v>727</v>
-      </c>
-      <c r="F62">
-        <v>1.28</v>
-      </c>
-      <c r="G62" s="1">
-        <v>3.7599999999999999E-5</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>782</v>
-      </c>
-      <c r="B63">
-        <v>14977</v>
-      </c>
-      <c r="C63">
-        <v>420</v>
-      </c>
-      <c r="D63">
-        <v>378.8</v>
-      </c>
-      <c r="E63" t="s">
-        <v>727</v>
-      </c>
-      <c r="F63">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="H63" s="1">
-        <v>4.3400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>783</v>
-      </c>
-      <c r="B64">
-        <v>20677</v>
-      </c>
-      <c r="C64">
-        <v>543</v>
-      </c>
-      <c r="D64">
-        <v>522.97</v>
-      </c>
-      <c r="E64" t="s">
-        <v>727</v>
-      </c>
-      <c r="F64">
-        <v>1.04</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1.06E-4</v>
-      </c>
-      <c r="H64" s="1">
-        <v>2.7699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>784</v>
-      </c>
-      <c r="B65">
-        <v>2192</v>
-      </c>
-      <c r="C65">
-        <v>27</v>
-      </c>
-      <c r="D65">
-        <v>55.44</v>
-      </c>
-      <c r="E65" t="s">
-        <v>785</v>
-      </c>
-      <c r="F65">
-        <v>0.49</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1.88E-5</v>
-      </c>
-      <c r="H65" s="1">
-        <v>8.3999999999999995E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>786</v>
-      </c>
-      <c r="B66">
-        <v>1306</v>
-      </c>
-      <c r="C66">
-        <v>13</v>
-      </c>
-      <c r="D66">
-        <v>33.03</v>
-      </c>
-      <c r="E66" t="s">
-        <v>785</v>
-      </c>
-      <c r="F66">
-        <v>0.39</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1.06E-4</v>
-      </c>
-      <c r="H66" s="1">
-        <v>2.8199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>787</v>
-      </c>
-      <c r="B67">
-        <v>1876</v>
-      </c>
-      <c r="C67">
-        <v>16</v>
-      </c>
-      <c r="D67">
-        <v>47.45</v>
-      </c>
-      <c r="E67" t="s">
-        <v>785</v>
-      </c>
-      <c r="F67">
-        <v>0.34</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1.04E-7</v>
-      </c>
-      <c r="H67" s="1">
-        <v>1.4799999999999999E-4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>788</v>
-      </c>
-      <c r="B68">
-        <v>1651</v>
-      </c>
-      <c r="C68">
-        <v>11</v>
-      </c>
-      <c r="D68">
-        <v>41.76</v>
-      </c>
-      <c r="E68" t="s">
-        <v>785</v>
-      </c>
-      <c r="F68">
-        <v>0.26</v>
-      </c>
-      <c r="G68" s="1">
-        <v>1.52E-8</v>
-      </c>
-      <c r="H68" s="1">
-        <v>3.4E-5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>789</v>
-      </c>
-      <c r="B69">
-        <v>794</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69">
-        <v>20.079999999999998</v>
-      </c>
-      <c r="E69" t="s">
-        <v>785</v>
-      </c>
-      <c r="F69">
-        <v>0.15</v>
-      </c>
-      <c r="G69" s="1">
-        <v>6.3600000000000001E-6</v>
-      </c>
-      <c r="H69" s="1">
-        <v>3.8300000000000001E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>790</v>
-      </c>
-      <c r="B70">
-        <v>695</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>17.579999999999998</v>
-      </c>
-      <c r="E70" t="s">
-        <v>785</v>
-      </c>
-      <c r="F70">
-        <v>0.11</v>
-      </c>
-      <c r="G70" s="1">
-        <v>8.7199999999999995E-6</v>
-      </c>
-      <c r="H70" s="1">
-        <v>4.7099999999999998E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>791</v>
-      </c>
-      <c r="B71">
-        <v>1151</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>29.11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>785</v>
-      </c>
-      <c r="F71">
-        <v>0.03</v>
-      </c>
-      <c r="G71" s="1">
-        <v>7.6599999999999993E-12</v>
-      </c>
-      <c r="H71" s="1">
-        <v>2.9999999999999997E-8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>792</v>
-      </c>
-      <c r="B72">
-        <v>1252</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>31.67</v>
-      </c>
-      <c r="E72" t="s">
-        <v>785</v>
-      </c>
-      <c r="F72">
-        <v>0.03</v>
-      </c>
-      <c r="G72" s="1">
-        <v>6.9099999999999998E-13</v>
-      </c>
-      <c r="H72" s="1">
-        <v>5.4100000000000001E-9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>793</v>
-      </c>
-      <c r="B73">
-        <v>548</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>13.86</v>
-      </c>
-      <c r="E73" t="s">
-        <v>785</v>
-      </c>
-      <c r="F73" t="s">
-        <v>794</v>
-      </c>
-      <c r="G73" s="1">
-        <v>1.9099999999999999E-6</v>
-      </c>
-      <c r="H73" s="1">
-        <v>1.58E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>795</v>
-      </c>
-      <c r="B74">
-        <v>606</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>15.33</v>
-      </c>
-      <c r="E74" t="s">
-        <v>785</v>
-      </c>
-      <c r="F74" t="s">
-        <v>794</v>
-      </c>
-      <c r="G74" s="1">
-        <v>3.8200000000000001E-7</v>
-      </c>
-      <c r="H74" s="1">
-        <v>3.9899999999999999E-4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>796</v>
-      </c>
-      <c r="B75">
-        <v>637</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>16.11</v>
-      </c>
-      <c r="E75" t="s">
-        <v>785</v>
-      </c>
-      <c r="F75" t="s">
-        <v>794</v>
-      </c>
-      <c r="G75" s="1">
-        <v>1.72E-7</v>
-      </c>
-      <c r="H75" s="1">
-        <v>2.0799999999999999E-4</v>
-      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17000,7 +15244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
